--- a/table/question/question-shengwu.xlsx
+++ b/table/question/question-shengwu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="2492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="2545">
   <si>
     <t>ID</t>
   </si>
@@ -7493,6 +7493,165 @@
   </si>
   <si>
     <t>青蛙属于哪一类动物？</t>
+  </si>
+  <si>
+    <t>诱导外胚层增厚形成神经板的结构是：</t>
+  </si>
+  <si>
+    <t>原条</t>
+  </si>
+  <si>
+    <t>体节</t>
+  </si>
+  <si>
+    <t>原结</t>
+  </si>
+  <si>
+    <t>脊索</t>
+  </si>
+  <si>
+    <t>下列哪项不属于胎膜？</t>
+  </si>
+  <si>
+    <t>基蜕膜</t>
+  </si>
+  <si>
+    <t>羊膜</t>
+  </si>
+  <si>
+    <t>脐带</t>
+  </si>
+  <si>
+    <t>尿囊</t>
+  </si>
+  <si>
+    <t>形成原条的胚层是：</t>
+  </si>
+  <si>
+    <t>下胚层</t>
+  </si>
+  <si>
+    <t>上胚层</t>
+  </si>
+  <si>
+    <t>胚内中胚层</t>
+  </si>
+  <si>
+    <t>胚外中胚层</t>
+  </si>
+  <si>
+    <t>同源染色体的配对，发生在减数分裂Ⅰ期的是：</t>
+  </si>
+  <si>
+    <t>粗线期</t>
+  </si>
+  <si>
+    <t>细线期</t>
+  </si>
+  <si>
+    <t>偶线期</t>
+  </si>
+  <si>
+    <t>双线期</t>
+  </si>
+  <si>
+    <t>已知父母中一方AB血型，另一方O血型，其子女的血型最可能是：</t>
+  </si>
+  <si>
+    <t>O型</t>
+  </si>
+  <si>
+    <t>A型或B型</t>
+  </si>
+  <si>
+    <t>AB型</t>
+  </si>
+  <si>
+    <t>0型或AB型</t>
+  </si>
+  <si>
+    <t>一个基因决定或影响多个性状的形成被称为：</t>
+  </si>
+  <si>
+    <t>一因多效</t>
+  </si>
+  <si>
+    <t>一因一效</t>
+  </si>
+  <si>
+    <t>多因一效</t>
+  </si>
+  <si>
+    <t>累加效应</t>
+  </si>
+  <si>
+    <t>下列属于X连锁显性遗传的是：</t>
+  </si>
+  <si>
+    <t>苯丙酮尿症</t>
+  </si>
+  <si>
+    <t>白化病</t>
+  </si>
+  <si>
+    <t>抗生素D佝偻病</t>
+  </si>
+  <si>
+    <t>血友病</t>
+  </si>
+  <si>
+    <t>染色体倒位现象最先是在哪种生物中发现的？</t>
+  </si>
+  <si>
+    <t>脉孢菌</t>
+  </si>
+  <si>
+    <t>果蝇</t>
+  </si>
+  <si>
+    <t>身体圆筒形，由许多相似体节组成，靠刚毛辅助运动的动物可能是：</t>
+  </si>
+  <si>
+    <t>小麦线虫</t>
+  </si>
+  <si>
+    <t>尿酸过多在肾小管处形成结晶，会引起上皮细胞坏死，这直接影响：</t>
+  </si>
+  <si>
+    <t>肾小管滤过作用</t>
+  </si>
+  <si>
+    <t>肾小管重吸收作用</t>
+  </si>
+  <si>
+    <t>肾小管贮存尿液</t>
+  </si>
+  <si>
+    <t>肾小管排出尿液</t>
+  </si>
+  <si>
+    <t>为降低血糖，糖尿病患者可注射的激素是：</t>
+  </si>
+  <si>
+    <t>甲状腺激素</t>
+  </si>
+  <si>
+    <t>胰岛素</t>
+  </si>
+  <si>
+    <t>下列食品制作过程中没有应用发酵技术的是：</t>
+  </si>
+  <si>
+    <t>酸奶</t>
+  </si>
+  <si>
+    <t>米酒</t>
+  </si>
+  <si>
+    <t>腐乳</t>
+  </si>
+  <si>
+    <t>绿豆汤</t>
   </si>
 </sst>
 </file>
@@ -8587,10 +8746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X639"/>
+  <dimension ref="A1:X652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="A639" sqref="A639:A651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -29052,33 +29211,426 @@
       <c r="A639" s="3">
         <v>636</v>
       </c>
-      <c r="B639" s="17" t="s">
+      <c r="B639" s="3" t="s">
         <v>2491</v>
       </c>
-      <c r="C639" s="17" t="s">
+      <c r="C639" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D639" s="17" t="s">
+      <c r="D639" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E639" s="17" t="s">
+      <c r="E639" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F639" s="17" t="s">
+      <c r="F639" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="G639" s="17" t="s">
+      <c r="G639" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H639" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I639" s="17">
+      <c r="H639" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I639" s="3">
         <v>50</v>
       </c>
-      <c r="J639" s="17">
+      <c r="J639" s="3">
         <v>50</v>
       </c>
+    </row>
+    <row r="640" customHeight="1" spans="1:10">
+      <c r="A640" s="3">
+        <v>637</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I640" s="3">
+        <v>1</v>
+      </c>
+      <c r="J640" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="641" customHeight="1" spans="1:10">
+      <c r="A641" s="3">
+        <v>638</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I641" s="3">
+        <v>1</v>
+      </c>
+      <c r="J641" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="642" customHeight="1" spans="1:10">
+      <c r="A642" s="3">
+        <v>639</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I642" s="3">
+        <v>1</v>
+      </c>
+      <c r="J642" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="643" customHeight="1" spans="1:10">
+      <c r="A643" s="3">
+        <v>640</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I643" s="3">
+        <v>5</v>
+      </c>
+      <c r="J643" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="644" customHeight="1" spans="1:10">
+      <c r="A644" s="3">
+        <v>641</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I644" s="3">
+        <v>10</v>
+      </c>
+      <c r="J644" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="1:10">
+      <c r="A645" s="3">
+        <v>642</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I645" s="3">
+        <v>5</v>
+      </c>
+      <c r="J645" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="646" customHeight="1" spans="1:10">
+      <c r="A646" s="3">
+        <v>643</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I646" s="3">
+        <v>5</v>
+      </c>
+      <c r="J646" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="647" customHeight="1" spans="1:10">
+      <c r="A647" s="3">
+        <v>644</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I647" s="3">
+        <v>10</v>
+      </c>
+      <c r="J647" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="1:10">
+      <c r="A648" s="3">
+        <v>645</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F648" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I648" s="3">
+        <v>10</v>
+      </c>
+      <c r="J648" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="649" customHeight="1" spans="1:10">
+      <c r="A649" s="3">
+        <v>646</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I649" s="3">
+        <v>5</v>
+      </c>
+      <c r="J649" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="650" customHeight="1" spans="1:10">
+      <c r="A650" s="3">
+        <v>647</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F650" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I650" s="3">
+        <v>70</v>
+      </c>
+      <c r="J650" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="651" customHeight="1" spans="1:10">
+      <c r="A651" s="3">
+        <v>648</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F651" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I651" s="3">
+        <v>60</v>
+      </c>
+      <c r="J651" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="652" customHeight="1" spans="2:9">
+      <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
+      <c r="D652" s="3"/>
+      <c r="E652" s="3"/>
+      <c r="F652" s="3"/>
+      <c r="G652" s="3"/>
+      <c r="I652" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
